--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E67FC26-E961-4ABA-ABEF-00FE8433EC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BD0A0A-3DF0-4B80-9A4C-8CB6E2959C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Environment</t>
   </si>
@@ -46,7 +46,43 @@
     <t>test</t>
   </si>
   <si>
-    <t>\Testdata\Non_Oncology\TestData\ManagePopulations\NonOncologyManagePopulationsPage_Data.xlsx</t>
+    <t>Testdata_name</t>
+  </si>
+  <si>
+    <t>nononcology_managepopulationdata</t>
+  </si>
+  <si>
+    <t>managepopulation_additional_col_check</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\ManagePopulations\NonOncologyManagePopulationsPage_Data.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\ManagePopulations\ManagePopulations_AdditionalCol_Check_Data.xlsx</t>
+  </si>
+  <si>
+    <t>edit_ep_categorical_invaliddata</t>
+  </si>
+  <si>
+    <t>edit_ep_continuous_invaliddata</t>
+  </si>
+  <si>
+    <t>edit_ep_timetoevent_invaliddata</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\ManagePopulations\EP_Categorical\EditPopulations_with_Invalid_Categorical_Data.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\ManagePopulations\EP_Continuous\EditPopulations_with_Invalid_Continuous_Data.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\ManagePopulations\EP_TimetoEvent\EditPopulations_with_Invalid_TimetoEvent_Data.xlsx</t>
+  </si>
+  <si>
+    <t>nononcology_importtool</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\ImportPublications\ImportPublicationsPage_Data.xlsx</t>
   </si>
 </sst>
 </file>
@@ -364,34 +400,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BD0A0A-3DF0-4B80-9A4C-8CB6E2959C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70D7DF5-A203-40CA-8A56-12C1445BF146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Environment</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>\Testdata\Non_Oncology\DataFiles\ImportPublications\ImportPublicationsPage_Data.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\ManageUpdates\ManageUpdates_NonOncology.xlsx</t>
+  </si>
+  <si>
+    <t>nononcology_manageupdatesdata</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,6 +498,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70D7DF5-A203-40CA-8A56-12C1445BF146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38B98D6-8A9F-4321-B22A-E6F20F8C3FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Environment</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>nononcology_manageupdatesdata</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\LiveSLRPage\NonOnco_SLR_Data.xlsx</t>
+  </si>
+  <si>
+    <t>nononcology_liveslr_data</t>
   </si>
 </sst>
 </file>
@@ -406,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,6 +515,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38B98D6-8A9F-4321-B22A-E6F20F8C3FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1E354C-7D2F-482E-9DA0-4CB7C61DC826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Environment</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>nononcology_liveslr_data</t>
+  </si>
+  <si>
+    <t>livehta_886_data</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\LIVEHTA_886\livehta_886_Data.xlsx</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,6 +532,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38B98D6-8A9F-4321-B22A-E6F20F8C3FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F514F611-1607-41C7-98C6-60BC34AF8ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Environment</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>nononcology_liveslr_data</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\LIVEHTA_2301\livehta_2301_Data.xlsx</t>
+  </si>
+  <si>
+    <t>livehta_2301_data</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,6 +532,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F514F611-1607-41C7-98C6-60BC34AF8ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1552D2E1-2493-4167-9786-67B2689D25F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Environment</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>livehta_2301_data</t>
+  </si>
+  <si>
+    <t>livehta_886_data</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\LIVEHTA_886\livehta_886_Data.xlsx</t>
   </si>
 </sst>
 </file>
@@ -421,7 +427,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,6 +538,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>

--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1552D2E1-2493-4167-9786-67B2689D25F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4AA737-5831-4BC7-9BD6-23B4370139C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Environment</t>
   </si>
@@ -91,9 +91,6 @@
     <t>nononcology_manageupdatesdata</t>
   </si>
   <si>
-    <t>\Testdata\Non_Oncology\DataFiles\LiveSLRPage\NonOnco_SLR_Data.xlsx</t>
-  </si>
-  <si>
     <t>nononcology_liveslr_data</t>
   </si>
   <si>
@@ -107,6 +104,15 @@
   </si>
   <si>
     <t>\Testdata\Non_Oncology\DataFiles\LIVEHTA_886\livehta_886_Data.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\LiveSLRPage\NonOnco_SLR_Import_Data.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\LiveSLRPage\NonOnco_SLRReport_Data.xlsx</t>
+  </si>
+  <si>
+    <t>nononcology_liveslr_report_data</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,10 +538,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -543,10 +549,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -554,10 +560,21 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4AA737-5831-4BC7-9BD6-23B4370139C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF6BCC8-70AD-456B-8AF5-87F3584ED2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Environment</t>
   </si>
@@ -113,6 +113,36 @@
   </si>
   <si>
     <t>nononcology_liveslr_report_data</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\ManageQAData\ManageQADataPage_NonOnco_Data.xlsx</t>
+  </si>
+  <si>
+    <t>nononcology_manageqadata</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\ManageExcludedPublications\ExcludedPubPage_Data.xlsx</t>
+  </si>
+  <si>
+    <t>nononcology_manageexcludedpub</t>
+  </si>
+  <si>
+    <t>nononcology_prisma</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\Protocol_Page\PRISMA\PRISMA_Nononco_Data.xlsx</t>
+  </si>
+  <si>
+    <t>nononcology_picos</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\Protocol_Page\PICOS\PICOS_Nononco_Data.xlsx</t>
+  </si>
+  <si>
+    <t>nononcology_searchstrategy</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\Protocol_Page\SearchStrategy\SearchStrategy_Nononco_Data.xlsx</t>
   </si>
 </sst>
 </file>
@@ -430,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,6 +607,61 @@
         <v>24</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF6BCC8-70AD-456B-8AF5-87F3584ED2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D245F5CF-004A-4887-B629-42DB452159A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Environment</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>\Testdata\Non_Oncology\DataFiles\Protocol_Page\SearchStrategy\SearchStrategy_Nononco_Data.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\LiveSLRPage\NonOnco_Clinical_SLRType_StudyDesign.xlsx</t>
+  </si>
+  <si>
+    <t>nononco_studydesign_section_validation</t>
   </si>
 </sst>
 </file>
@@ -460,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,6 +668,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D245F5CF-004A-4887-B629-42DB452159A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6063BC-EADE-44DD-8E82-867779DACE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Environment</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>nononco_studydesign_section_validation</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\Protocol_Page\DownloadProtocol\Download_Protocol_Data.xlsx</t>
+  </si>
+  <si>
+    <t>download_protocol_excel</t>
   </si>
 </sst>
 </file>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,6 +685,17 @@
         <v>36</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6063BC-EADE-44DD-8E82-867779DACE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBE5F97-B752-4061-8AB3-82F1F70EE35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Environment</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>download_protocol_excel</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\LIVEHTA_1904\LiveHTA_1904_Data.xlsx</t>
+  </si>
+  <si>
+    <t>livehta_1904_data</t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,6 +702,17 @@
         <v>38</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBE5F97-B752-4061-8AB3-82F1F70EE35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FA8986-4F96-40E0-B9DA-F026A2DD7F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Environment</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>livehta_1904_data</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\Protocol_Page\DownloadProtocol\Protocol_PRISMA_Data.xlsx</t>
+  </si>
+  <si>
+    <t>download_protocol_prisma</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,6 +719,17 @@
         <v>40</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FA8986-4F96-40E0-B9DA-F026A2DD7F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80CD69F-05C3-4369-9924-9DA241A9BC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Environment</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>download_protocol_prisma</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\LIVEHTA_2532\livehta2532_with_Invalid_Template.xlsx</t>
+  </si>
+  <si>
+    <t>livehta_2532_template_validation</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\LIVEHTA_2532\livehta2532_ImportPublications_Data.xlsx</t>
+  </si>
+  <si>
+    <t>livehta_2532_importool_validation</t>
   </si>
 </sst>
 </file>
@@ -484,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,6 +742,28 @@
         <v>42</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80CD69F-05C3-4369-9924-9DA241A9BC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2BD984-537B-4CF1-BADD-A623B904106E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Environment</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>livehta_2532_importool_validation</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\LiveSLRPage\NonOnco_Clinical_SLRType_GeographicRegion.xlsx</t>
+  </si>
+  <si>
+    <t>nononco_geographic_section_validation</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\LiveSLRPage\NonOnco_Clinical_SLRType_GeographicRegion_ClientUser.xlsx</t>
+  </si>
+  <si>
+    <t>nononco_geographic_section_clientuser_validation</t>
   </si>
 </sst>
 </file>
@@ -496,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,6 +776,28 @@
         <v>46</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2BD984-537B-4CF1-BADD-A623B904106E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CC006B-AA4E-4F13-852F-DDB15E6E003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>Environment</t>
   </si>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>nononco_geographic_section_clientuser_validation</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\LiveSLRPage\NonOnco_Clinical_GeographicRegion_updatedprisma.xlsx</t>
+  </si>
+  <si>
+    <t>prismacount_geographic_section</t>
+  </si>
+  <si>
+    <t>prismacount_geographic_section_clientuser</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\LiveSLRPage\NonOnco_Clinical_GeographicRegion_updatedprisma_ClientUser.xlsx</t>
   </si>
 </sst>
 </file>
@@ -508,16 +520,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="99.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -798,6 +810,28 @@
         <v>50</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testdata/Non_Oncology/BaseFile.xlsx
+++ b/Testdata/Non_Oncology/BaseFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSE WORKSPACE\pse.autotest\Testdata\Non_Oncology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2BD984-537B-4CF1-BADD-A623B904106E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319278E6-86C8-4609-91A9-0886EE25BE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>Environment</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>nononco_geographic_section_clientuser_validation</t>
+  </si>
+  <si>
+    <t>livehta_3750_manage_abbreviation</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\DataFiles\ManageAbbreviations\LIVEHTA_3750_manageAbbreviation_Data.xlsx</t>
   </si>
 </sst>
 </file>
@@ -508,22 +514,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="99.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -545,7 +551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -556,7 +562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -567,7 +573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -578,7 +584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -589,7 +595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -600,7 +606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -611,7 +617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -622,7 +628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -633,7 +639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -644,7 +650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -655,7 +661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -666,7 +672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -677,7 +683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -688,7 +694,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -699,7 +705,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -710,7 +716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -721,7 +727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -732,7 +738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -743,7 +749,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -754,7 +760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -765,7 +771,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -776,7 +782,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -787,7 +793,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -796,6 +802,17 @@
       </c>
       <c r="C25" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
